--- a/s16/taxi-budapest/tasks.xlsx
+++ b/s16/taxi-budapest/tasks.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23970" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23970" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>guid</t>
   </si>
@@ -38,30 +37,9 @@
     <t>5ea7f219f9d94185b213e1dc404dddef</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2fdceb5f2e7a41db822dcbe404dab7d1</t>
   </si>
   <si>
-    <t>Németh Cs. Dávid</t>
-  </si>
-  <si>
-    <t>2030 Érd, Mogyorófa u 8.</t>
-  </si>
-  <si>
-    <t>salala</t>
-  </si>
-  <si>
-    <t>+36303489105</t>
-  </si>
-  <si>
-    <t>Kovács Géza</t>
-  </si>
-  <si>
-    <t>1117 Budapest, Hengermalom u 40.</t>
-  </si>
-  <si>
     <t>driver</t>
   </si>
   <si>
@@ -69,6 +47,66 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Beware of the Leopard</t>
+  </si>
+  <si>
+    <t>Pásztor Agoston</t>
+  </si>
+  <si>
+    <t>1118 Budapest Ugron Gábor utca 16-18</t>
+  </si>
+  <si>
+    <t>1113 Budapest Dávid Ferenc utca 13</t>
+  </si>
+  <si>
+    <t>1078 Budapest Hernád utca 25-27</t>
+  </si>
+  <si>
+    <t>1015 Budapest Toldy Ferenc utca 9</t>
+  </si>
+  <si>
+    <t>1122 Budapest Maros utca 19-21</t>
+  </si>
+  <si>
+    <t>Mezey Róbert</t>
+  </si>
+  <si>
+    <t>Antal Teca</t>
+  </si>
+  <si>
+    <t>Zsinkó Mátyás</t>
+  </si>
+  <si>
+    <t>Bakó Panna</t>
+  </si>
+  <si>
+    <t>(20) 511-326</t>
+  </si>
+  <si>
+    <t>(30) 930-745</t>
+  </si>
+  <si>
+    <t>(30) 907-660</t>
+  </si>
+  <si>
+    <t>(20) 192-537</t>
+  </si>
+  <si>
+    <t>(70) 684-831</t>
+  </si>
+  <si>
+    <t>E1862BD0BEF811E2ADB35D356288709B</t>
+  </si>
+  <si>
+    <t>E4B97D98BEF811E288215E356288709B</t>
+  </si>
+  <si>
+    <t>E7083BE8BEF811E281985F356288709B</t>
+  </si>
+  <si>
+    <t>cPassenger</t>
   </si>
 </sst>
 </file>
@@ -78,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -87,6 +125,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464646"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,12 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -421,22 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,62 +509,142 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36202138469</v>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="3">
         <v>41409.645833333299</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41409.645833333336</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41409.656944444403</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>41409.635416666664</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41409.663194444445</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>41409.656944444403</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>